--- a/biology/Histoire de la zoologie et de la botanique/George_John_Romanes/George_John_Romanes.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_John_Romanes/George_John_Romanes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George John Romanes est un naturaliste et un psychologue britannique, né le 19 mai 1848 à Kingston (Ontario) et mort le 23 mai 1894.
 Il participe à la fondation de ce qu’il appelle la psychologie comparative, partant des similitudes entre les mécanismes cognitifs entre les animaux et les êtres humains.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le troisième fils du révérend George Romanes, un prêtre presbytérien canadien d’origine écossaise. Lorsqu’il a deux ans, ses parents retournent en Grande-Bretagne.
 Comme de nombreux autres naturalistes britanniques, il commence par étudier la théologie avant de se tourner vers l’étude de la médecine et de la physiologie à Cambridge. Il est diplômé d’un Bachelor of Arts au Gonville and Caius College en 1870. C’est durant ses études qu’il fait la connaissance de Charles Darwin (1809-1882). Les deux hommes resteront amis toute leur vie.
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Candid Examination of Theism (publié sous le pseudonyme de Physicus) (1878)
 Animal Intelligence (1881); trad. L'intelligence des animaux, 2 vol., précédée d'une Préface sur l'évolution mentale par Edmond Perrier, Paris, Félix Alcan (1887)
@@ -584,7 +600,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « George Romanes » (voir la liste des auteurs) (version du 18 octobre 2006).</t>
         </is>
